--- a/MainTables.xlsx
+++ b/MainTables.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7005" windowHeight="4575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7005" windowHeight="4575"/>
   </bookViews>
   <sheets>
-    <sheet name="Table1.MLH1" sheetId="1" r:id="rId1"/>
-    <sheet name="Table2.DMC1" sheetId="2" r:id="rId2"/>
+    <sheet name="Table.Strain.Info" sheetId="3" r:id="rId1"/>
+    <sheet name="Table1.MLH1" sheetId="1" r:id="rId2"/>
+    <sheet name="Table2.DMC1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,8 +25,48 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>April Peterson</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>April Peterson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This table could list the strains with these columns:
+Subspecies/Species 
+Strain
+Geographic Origin
+Source
+First list subspecies of house mice (keeping strains of the same subspecies together), then other murid species. Alphabetical by strain within subspecies.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
   <si>
     <t>Species</t>
   </si>
@@ -148,13 +189,103 @@
   </si>
   <si>
     <t>Number of Mice</t>
+  </si>
+  <si>
+    <t>subspecies</t>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>geo-origin</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Dom</t>
+  </si>
+  <si>
+    <t>Musc</t>
+  </si>
+  <si>
+    <t>AST</t>
+  </si>
+  <si>
+    <t>CZECHII</t>
+  </si>
+  <si>
+    <t>central Europe, Czech</t>
+  </si>
+  <si>
+    <t>Kazatstan</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Jackson Lab</t>
+  </si>
+  <si>
+    <t>RIKEN</t>
+  </si>
+  <si>
+    <t>Gough Island</t>
+  </si>
+  <si>
+    <t>Mol</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Spicilegus</t>
+  </si>
+  <si>
+    <t>Caroli</t>
+  </si>
+  <si>
+    <t>cast</t>
+  </si>
+  <si>
+    <t>CAST</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Thailand?</t>
+  </si>
+  <si>
+    <t>PERC</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>East Coast USA</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>TOM</t>
+  </si>
+  <si>
+    <t>Paysuer Lab</t>
+  </si>
+  <si>
+    <t>Western Europe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +309,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -368,47 +520,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -429,9 +551,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -442,9 +561,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -460,33 +576,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -517,6 +606,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,6 +949,229 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J22"/>
   <sheetViews>
@@ -811,586 +1187,586 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>14</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>184</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="12">
         <v>24.701000000000001</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="21">
         <v>0.26700000000000002</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="22">
         <v>14.638271224837814</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="21">
         <v>13.074</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="56" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="3">
         <v>11</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="3">
         <v>222</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="8">
         <v>23.382999999999999</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="23">
         <v>0.18</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="24">
         <v>11.479933887268658</v>
       </c>
-      <c r="J4" s="44">
+      <c r="J4" s="23">
         <v>7.2060000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="3">
         <v>12</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="3">
         <v>318</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="8">
         <v>28.210999999999999</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="23">
         <v>0.23499999999999999</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="24">
         <v>14.835969061582837</v>
       </c>
-      <c r="J5" s="44">
+      <c r="J5" s="23">
         <v>17.516999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="57" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="3">
         <v>18</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="3">
         <v>355</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="8">
         <v>23.161000000000001</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="24">
         <v>11.35380583435758</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="23">
         <v>6.915</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="3">
         <v>9</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="3">
         <v>147</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="8">
         <v>26.585000000000001</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="23">
         <v>0.39800000000000002</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="24">
         <v>18.16189516714001</v>
       </c>
-      <c r="J7" s="44">
+      <c r="J7" s="23">
         <v>23.312999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="57" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="4">
         <v>253</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="16">
         <v>24.161999999999999</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="25">
         <v>0.19500000000000001</v>
       </c>
-      <c r="I8" s="47">
+      <c r="I8" s="26">
         <v>12.83701437670674</v>
       </c>
-      <c r="J8" s="46">
+      <c r="J8" s="25">
         <v>9.6199999999999992</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="45"/>
+      <c r="B9" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>15</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>222</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="12">
         <v>25.977</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="21">
         <v>0.251</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="22">
         <v>14.41018621027294</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="21">
         <v>14.013</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="56" t="s">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="3">
         <v>8</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="3">
         <v>161</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="8">
         <v>28.670999999999999</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="23">
         <v>0.246</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="24">
         <v>10.896284161204306</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="23">
         <v>9.76</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="3">
         <v>32</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="8">
         <v>25.937999999999999</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="23">
         <v>0.55300000000000005</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="24">
         <v>12.070868672504577</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="23">
         <v>9.8019999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="57" t="s">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="3">
         <v>3</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="3">
         <v>86</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="8">
         <v>26.081</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="23">
         <v>0.29299999999999998</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="24">
         <v>10.408689886052935</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="23">
         <v>7.37</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6" t="s">
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="3">
         <v>9</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="3">
         <v>184</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="8">
         <v>25.625</v>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="23">
         <v>0.29499999999999998</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="24">
         <v>15.628736960600049</v>
       </c>
-      <c r="J13" s="44">
+      <c r="J13" s="23">
         <v>16.039000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="57" t="s">
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="4">
         <v>13</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="4">
         <v>264</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="16">
         <v>22.989000000000001</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="25">
         <v>0.186</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="26">
         <v>13.159636243359548</v>
       </c>
-      <c r="J14" s="46">
+      <c r="J14" s="25">
         <v>9.1519999999999992</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="45"/>
+      <c r="B15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>14</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <v>300</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="12">
         <v>28.123000000000001</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="21">
         <v>0.254</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="27">
         <v>15.64239374084605</v>
       </c>
-      <c r="J15" s="42">
+      <c r="J15" s="21">
         <v>19.353000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="56" t="s">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="3">
         <v>7</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="3">
         <v>166</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="8">
         <v>30.367000000000001</v>
       </c>
-      <c r="H16" s="44">
+      <c r="H16" s="23">
         <v>0.24199999999999999</v>
       </c>
-      <c r="I16" s="49">
+      <c r="I16" s="28">
         <v>10.262658213499735</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16" s="25">
         <v>9.7129999999999992</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6" t="s">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="3">
         <v>1</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="3">
         <v>21</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="8">
         <v>27.619</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="23">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="23">
         <v>15.338917885642941</v>
       </c>
-      <c r="J17" s="50">
+      <c r="J17" s="29">
         <v>17.948</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="57" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="4">
         <v>6</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="4">
         <v>119</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="16">
         <v>23.42</v>
       </c>
-      <c r="H18" s="46">
+      <c r="H18" s="25">
         <v>0.23200000000000001</v>
       </c>
-      <c r="I18" s="46">
+      <c r="I18" s="25">
         <v>10.80040516644884</v>
       </c>
-      <c r="J18" s="51">
+      <c r="J18" s="30">
         <v>6.3979999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="38"/>
+      <c r="C19" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="3">
         <v>2</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="3">
         <v>2</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="8">
         <v>26</v>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="23">
         <v>2</v>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="23">
         <v>10.878565864408424</v>
       </c>
-      <c r="J19" s="50">
+      <c r="J19" s="29">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="56" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="3">
         <v>5</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="3">
         <v>103</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="8">
         <v>24.427</v>
       </c>
-      <c r="H20" s="44">
+      <c r="H20" s="23">
         <v>0.246</v>
       </c>
-      <c r="I20" s="44">
+      <c r="I20" s="23">
         <v>10.232121984584271</v>
       </c>
-      <c r="J20" s="50">
+      <c r="J20" s="29">
         <v>6.2469999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="38"/>
+      <c r="C21" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>6</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <v>97</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="12">
         <v>28.236999999999998</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="21">
         <v>0.44800000000000001</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="21">
         <v>15.628316890383017</v>
       </c>
-      <c r="J21" s="52">
+      <c r="J21" s="31">
         <v>19.474</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="57" t="s">
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="4">
         <v>4</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="4">
         <v>133</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="16">
         <v>25.774000000000001</v>
       </c>
-      <c r="H22" s="46">
+      <c r="H22" s="25">
         <v>0.24099999999999999</v>
       </c>
-      <c r="I22" s="46">
+      <c r="I22" s="25">
         <v>10.781039022222362</v>
       </c>
-      <c r="J22" s="51">
+      <c r="J22" s="30">
         <v>7.7210000000000001</v>
       </c>
     </row>
@@ -1417,11 +1793,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1437,166 +1813,166 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="15" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="20" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="7">
         <v>21</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="8">
         <v>177.76190476190476</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="9">
         <v>0.13715946228965248</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="10">
         <v>20</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="8">
         <v>144.25</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="9">
         <v>0.16902410587679217</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="7">
         <v>19</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="8">
         <v>158.15789473684211</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="9">
         <v>0.15299197633573675</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="10">
         <v>9</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="8">
         <v>131.77777777777777</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="9">
         <v>0.18361888701517706</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="8">
         <v>159</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="9">
         <v>0.15241074020319303</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="10">
         <v>11</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="8">
         <v>167.36363636363637</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="9">
         <v>0.1447943425395897</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="11">
         <v>18</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="12">
         <v>180.22222222222223</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="13">
         <v>0.16261243834771885</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="14">
         <v>18</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="12">
         <v>140.77777777777777</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="13">
         <v>0.20817472375690607</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="55"/>
+      <c r="B8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="15">
         <v>17</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="16">
         <v>231</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="17">
         <v>0.13518614718614719</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="18">
         <v>17</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="16">
         <v>164.41176470588235</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="17">
         <v>0.1899377459749553</v>
       </c>
     </row>

--- a/MainTables.xlsx
+++ b/MainTables.xlsx
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Table.Strain.Info" sheetId="3" r:id="rId1"/>
-    <sheet name="Table1.MLH1" sheetId="1" r:id="rId2"/>
-    <sheet name="Table2.DMC1" sheetId="2" r:id="rId3"/>
+    <sheet name="Table 2 Models" sheetId="4" r:id="rId2"/>
+    <sheet name="Table.MLH1" sheetId="1" r:id="rId3"/>
+    <sheet name="Table.DMC1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="75">
   <si>
     <t>Species</t>
   </si>
@@ -203,12 +204,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>Dom</t>
-  </si>
-  <si>
-    <t>Musc</t>
-  </si>
-  <si>
     <t>AST</t>
   </si>
   <si>
@@ -233,21 +228,9 @@
     <t>Gough Island</t>
   </si>
   <si>
-    <t>Mol</t>
-  </si>
-  <si>
     <t>Japan</t>
   </si>
   <si>
-    <t>Spicilegus</t>
-  </si>
-  <si>
-    <t>Caroli</t>
-  </si>
-  <si>
-    <t>cast</t>
-  </si>
-  <si>
     <t>CAST</t>
   </si>
   <si>
@@ -279,13 +262,65 @@
   </si>
   <si>
     <t>Western Europe</t>
+  </si>
+  <si>
+    <t>M. m. castaneus</t>
+  </si>
+  <si>
+    <t>M1 Mixed Model</t>
+  </si>
+  <si>
+    <t>M2 Linear Model</t>
+  </si>
+  <si>
+    <t>M3 Linear Model</t>
+  </si>
+  <si>
+    <t>M4 Linear Model</t>
+  </si>
+  <si>
+    <t>M5 Linear Model</t>
+  </si>
+  <si>
+    <t> Don’t you need to show all the terms for each of these models? For example, M1 has subspecies, sex, and subspecies*sex. And is strain nested within other terms? I can’t remember.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>I was assuming the ‘*’ vs the ‘+’ implied an interaction – but I will add an interaction term – or maybe this should be noted in the figure caption.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Move this information to a new Table 2</t>
+    </r>
+  </si>
+  <si>
+    <t>model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,6 +365,33 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -520,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -670,6 +732,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,6 +771,336 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="5943600" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="590550"/>
+          <a:ext cx="3267075" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="981075"/>
+          <a:ext cx="2428875" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1371600"/>
+          <a:ext cx="3790950" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1762125"/>
+          <a:ext cx="3209925" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -950,221 +1366,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="D2" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="E2" s="58" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="66"/>
+      <c r="B4" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="66"/>
+      <c r="B5" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="62"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="67"/>
+      <c r="B6" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C8" s="59"/>
+      <c r="D8" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="66"/>
+      <c r="B9" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="66"/>
+      <c r="B10" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="66"/>
+      <c r="B11" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="66"/>
+      <c r="B12" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="67"/>
+      <c r="B13" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="67"/>
+      <c r="B16" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="67"/>
+      <c r="B19" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="70"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="70"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="45"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="42"/>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="45"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="45"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="42"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="45"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="45"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="45"/>
+      <c r="B29" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="43"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="42"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="45"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="42"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="45"/>
+      <c r="B35" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="42"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="42"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="38"/>
+      <c r="C39" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
-      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="39"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="42"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="38"/>
+      <c r="C41" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="39"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="42"/>
     </row>
   </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A23:A38"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="B35:B38"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1173,10 +1770,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="69" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="69" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,7 +2451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H8"/>
   <sheetViews>
